--- a/test-service/src/main/resources/rule8/rule8.xlsx
+++ b/test-service/src/main/resources/rule8/rule8.xlsx
@@ -176,7 +176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,9 +187,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:I9"/>
+      <selection activeCell="A10" sqref="A10:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -749,9 +746,6 @@
       <c r="I9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="6:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="F28" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/test-service/src/main/resources/rule8/rule8.xlsx
+++ b/test-service/src/main/resources/rule8/rule8.xlsx
@@ -40,8 +40,29 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>dataDisposeSehedule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCCESSED</t>
+  </si>
+  <si>
+    <t>bizCode</t>
+  </si>
+  <si>
+    <t>PAY.CZ</t>
+  </si>
+  <si>
+    <t>M88888888</t>
+  </si>
+  <si>
+    <t>U88888888</t>
+  </si>
+  <si>
     <t>DEPOSIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>888888888888</t>
   </si>
   <si>
     <t>M88888888</t>
@@ -52,6 +73,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>DEPOSIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>888888888888</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -80,44 +105,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>8888888888889</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>2016-03-16 09:18:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8888888888889</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataDisposeSehedule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUCCESSED</t>
-  </si>
-  <si>
-    <t>bizCode</t>
-  </si>
-  <si>
-    <t>PAY.CZ</t>
-  </si>
-  <si>
-    <t>M88888888</t>
-  </si>
-  <si>
-    <t>U88888888</t>
-  </si>
-  <si>
-    <t>DEPOSIT</t>
-  </si>
-  <si>
-    <t>888888888888</t>
-  </si>
-  <si>
     <t>2016-03-18 09:18:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>POC0008</t>
+    <t>POC000801</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:I33"/>
+      <selection activeCell="A9" sqref="A9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -527,224 +527,224 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="I3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="3">
-        <v>96</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="I4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="3">
-        <v>97</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="I5" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="3">
-        <v>96</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="I6" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="3">
-        <v>100</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="I7" t="s">
         <v>10</v>
-      </c>
-      <c r="E7" s="3">
-        <v>100</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3">
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
         <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
